--- a/Des_Moines_Pop_by_Gender.xlsx
+++ b/Des_Moines_Pop_by_Gender.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fed36567fa17e89/Desktop/GitHubProjects/Class/bikesharing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64C900F6-0F52-4692-964C-5AD6ACFF1BF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{64C900F6-0F52-4692-964C-5AD6ACFF1BF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3FE266D1-3837-4A56-92C1-D9F75A54F82E}"/>
   <bookViews>
-    <workbookView xWindow="2856" yWindow="1632" windowWidth="17280" windowHeight="10596" xr2:uid="{10F30375-C71B-48BE-90E5-F10DABACAD69}"/>
+    <workbookView xWindow="-17436" yWindow="2316" windowWidth="17280" windowHeight="10596" xr2:uid="{10F30375-C71B-48BE-90E5-F10DABACAD69}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1959527-CC02-4D5F-B389-9FA5E8CBEF2F}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -426,7 +426,7 @@
     <col min="1" max="1" width="14.734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,7 +437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -448,7 +448,7 @@
         <v>30672</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -458,8 +458,12 @@
       <c r="C3" s="1">
         <v>32040</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="E3" s="1">
+        <f>SUM(C3:C4,C8:C9)</f>
+        <v>119032</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -469,8 +473,12 @@
       <c r="C4" s="1">
         <v>26749</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="E4">
+        <f>E3/SUM(C2:C11)</f>
+        <v>0.54855225744609271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -481,7 +489,7 @@
         <v>11832</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -492,7 +500,7 @@
         <v>4297</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -503,7 +511,7 @@
         <v>31091</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -514,7 +522,7 @@
         <v>32351</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -525,7 +533,7 @@
         <v>27892</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -536,7 +544,7 @@
         <v>13126</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>8</v>
       </c>
